--- a/ExcelSheet.xlsx
+++ b/ExcelSheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Shiva\eclipse-workspace\HalcyontekSPAI-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Combo Meals" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="89">
   <si>
     <t>Combo Meals</t>
   </si>
@@ -99,13 +99,211 @@
   </si>
   <si>
     <t>Done in Feature's</t>
+  </si>
+  <si>
+    <t>4 Express Tenders Dinner</t>
+  </si>
+  <si>
+    <t>7 Express Tenders Dinner</t>
+  </si>
+  <si>
+    <t>3 Piece Chicken Dinner</t>
+  </si>
+  <si>
+    <t>2 Piece Chicken Dinner</t>
+  </si>
+  <si>
+    <t>6 Livers Dinner</t>
+  </si>
+  <si>
+    <t>8 Boneless Hot Wings Dinner</t>
+  </si>
+  <si>
+    <t>9 Gizzards Dinner</t>
+  </si>
+  <si>
+    <t>Mixed Livers &amp; Gizzards Dinner</t>
+  </si>
+  <si>
+    <t>Tenders Choice (Pick 4)</t>
+  </si>
+  <si>
+    <t>Sauce Choices</t>
+  </si>
+  <si>
+    <t>Side Choices (Pick 2)</t>
+  </si>
+  <si>
+    <t>Sauce Choices (Pick 4)</t>
+  </si>
+  <si>
+    <t>Dinner Combo Meals</t>
+  </si>
+  <si>
+    <t>Family Meals</t>
+  </si>
+  <si>
+    <t>8 Piece Mixed Chicken Family Meal</t>
+  </si>
+  <si>
+    <t>12 Piece Mixed Chicken Family Meal</t>
+  </si>
+  <si>
+    <t>16 Piece Mixed Chicken Family Meal</t>
+  </si>
+  <si>
+    <t>20 Express Tenders Family Meal</t>
+  </si>
+  <si>
+    <t>25 Express Tenders Family Meal</t>
+  </si>
+  <si>
+    <t>30 Express Tenders Family Meal</t>
+  </si>
+  <si>
+    <t>Chicken Choice</t>
+  </si>
+  <si>
+    <t>Side Selection</t>
+  </si>
+  <si>
+    <t>Pick 2</t>
+  </si>
+  <si>
+    <t>Pick 3</t>
+  </si>
+  <si>
+    <t>EXPRESS EXTRAS</t>
+  </si>
+  <si>
+    <t>2 Pieces Chicken</t>
+  </si>
+  <si>
+    <t>3 Pieces Chicken</t>
+  </si>
+  <si>
+    <t>2 Tenders Snack Pack</t>
+  </si>
+  <si>
+    <t>1 Piece Chicken Snack Pack</t>
+  </si>
+  <si>
+    <t>4 Piece Express Tenders</t>
+  </si>
+  <si>
+    <t>7 Piece Express Tenders</t>
+  </si>
+  <si>
+    <t>15 Piece Express Tenders</t>
+  </si>
+  <si>
+    <t>8 Piece Boneless Hot Wings</t>
+  </si>
+  <si>
+    <t>24 Piece Boneless Hot Wings</t>
+  </si>
+  <si>
+    <t>6 Livers</t>
+  </si>
+  <si>
+    <t>12 Livers</t>
+  </si>
+  <si>
+    <t>9 Gizzards</t>
+  </si>
+  <si>
+    <t>18 Gizzards</t>
+  </si>
+  <si>
+    <t>Tenders Choice (Pick 2)</t>
+  </si>
+  <si>
+    <t>Sauce Choice</t>
+  </si>
+  <si>
+    <t>2 Fillets Combo</t>
+  </si>
+  <si>
+    <t>3 Fillets Combo</t>
+  </si>
+  <si>
+    <t>2 Fillets Dinner</t>
+  </si>
+  <si>
+    <t>3 Fillets Dinner</t>
+  </si>
+  <si>
+    <t>Fillet Family Dinner</t>
+  </si>
+  <si>
+    <t>1 Fillet Express Fish Fillet</t>
+  </si>
+  <si>
+    <t>2 Express Fish Fillets</t>
+  </si>
+  <si>
+    <t>3 Express Fish Fillets</t>
+  </si>
+  <si>
+    <t>8 Express Fish Fillets</t>
+  </si>
+  <si>
+    <t>Sauce Choices (Pick 6)</t>
+  </si>
+  <si>
+    <t>SPECIALS</t>
+  </si>
+  <si>
+    <t>5 Pieces Chicken / 7 Tenders / 2 Sides</t>
+  </si>
+  <si>
+    <t>Mega Meal</t>
+  </si>
+  <si>
+    <t>12 Pieces Chicken / 2 Family Sides</t>
+  </si>
+  <si>
+    <t>15 Tender Special</t>
+  </si>
+  <si>
+    <t>Special 2 Pieces</t>
+  </si>
+  <si>
+    <t>Chicken Choice (Pick 5)</t>
+  </si>
+  <si>
+    <t>Family Sides (Pick 2)</t>
+  </si>
+  <si>
+    <t>Family Sides (Pick 4)</t>
+  </si>
+  <si>
+    <t>Tenders (Pick 8)</t>
+  </si>
+  <si>
+    <t>Tea Choice</t>
+  </si>
+  <si>
+    <t>Chicken Choice (Pick 12)</t>
+  </si>
+  <si>
+    <t>Tenders Choice (Pick 15)</t>
+  </si>
+  <si>
+    <t>KIDS MEAL</t>
+  </si>
+  <si>
+    <t>Kids Meal</t>
+  </si>
+  <si>
+    <t>Kids Meal Option</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,6 +330,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -175,7 +379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -187,6 +391,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -811,76 +1031,1421 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:H9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="24" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:F10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="24" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+    </row>
+    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
+    <col min="5" max="6" width="23.7109375" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" customWidth="1"/>
+    <col min="11" max="16" width="20.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="24" x14ac:dyDescent="0.45">
+      <c r="A1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+    </row>
+    <row r="2" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="N2" s="10"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="B5" sqref="A1:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="13" width="20.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="24" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C10" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="B3" sqref="B3:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="24" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="24" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ExcelSheet.xlsx
+++ b/ExcelSheet.xlsx
@@ -2352,7 +2352,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
